--- a/data/trans_orig/P1423-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92F5980E-CA3C-456E-839D-FB37B2ADE446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EC4668A-5BA1-4BA3-A33C-994E5249977A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{581A1E8B-0F4D-42BE-99AC-5A200D1C9D04}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3540B502-CE1A-4B9E-8020-952098A85871}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="525">
   <si>
     <t>Población con diagnóstico de depresión o ansiedad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1474 +95,1456 @@
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>4,66%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>90,81%</t>
   </si>
   <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>93,11%</t>
   </si>
   <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>99,68%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -2043,7 +2025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4689BE57-9455-4FC8-A5D7-7FC8FCAB8EB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7C1AC7-AB89-4A37-88A9-22DC5B183B7A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2633,10 +2615,10 @@
         <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -2645,13 +2627,13 @@
         <v>22107</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -2660,13 +2642,13 @@
         <v>25793</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2663,13 @@
         <v>315161</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -2696,13 +2678,13 @@
         <v>313305</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>620</v>
@@ -2711,13 +2693,13 @@
         <v>628465</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,7 +2755,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2791,37 +2773,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,13 +2818,13 @@
         <v>7627</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -2851,13 +2833,13 @@
         <v>16692</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -2866,13 +2848,13 @@
         <v>24319</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2869,13 @@
         <v>351044</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>366</v>
@@ -2902,13 +2884,13 @@
         <v>354764</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>721</v>
@@ -2917,13 +2899,13 @@
         <v>705808</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,7 +2961,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2997,7 +2979,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3487,10 +3469,10 @@
         <v>152</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3487,13 @@
         <v>596733</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H30" s="7">
         <v>570</v>
@@ -3520,13 +3502,13 @@
         <v>587080</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M30" s="7">
         <v>1148</v>
@@ -3535,13 +3517,13 @@
         <v>1183814</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,7 +3579,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3615,7 +3597,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3630,7 +3612,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3645,7 +3627,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3642,13 @@
         <v>43459</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H33" s="7">
         <v>52</v>
@@ -3675,13 +3657,13 @@
         <v>57918</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="M33" s="7">
         <v>96</v>
@@ -3690,13 +3672,13 @@
         <v>101376</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3693,13 @@
         <v>700336</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="H34" s="7">
         <v>693</v>
@@ -3726,10 +3708,10 @@
         <v>725593</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>176</v>
@@ -3899,10 +3881,10 @@
         <v>188</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,13 +3899,13 @@
         <v>3175170</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H38" s="7">
         <v>3049</v>
@@ -3932,28 +3914,28 @@
         <v>3122076</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M38" s="7">
         <v>6159</v>
       </c>
       <c r="N38" s="7">
-        <v>6297244</v>
+        <v>6297245</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,7 +3977,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -4009,7 +3991,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4033,7 +4015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC978900-A635-4A9A-AC66-43457FA4E0AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F298A7A-8304-4091-A79E-697002C88BB6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4050,7 +4032,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4155,39 +4137,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,39 +4182,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,39 +4227,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,39 +4272,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,7 +4342,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4390,13 +4372,13 @@
         <v>18962</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H9" s="7">
         <v>59</v>
@@ -4405,10 +4387,10 @@
         <v>65013</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>207</v>
@@ -4441,13 +4423,13 @@
         <v>486565</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>421</v>
@@ -4456,13 +4438,13 @@
         <v>458752</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>880</v>
@@ -4471,13 +4453,13 @@
         <v>945317</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,7 +4533,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4566,7 +4548,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4596,13 +4578,13 @@
         <v>16841</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -4611,13 +4593,13 @@
         <v>38854</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4626,13 +4608,13 @@
         <v>55695</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4629,13 @@
         <v>307205</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>280</v>
@@ -4662,13 +4644,13 @@
         <v>302166</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>583</v>
@@ -4677,13 +4659,13 @@
         <v>609371</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,7 +4721,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4787,7 +4769,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4784,13 @@
         <v>24130</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -4817,13 +4799,13 @@
         <v>88025</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -4832,13 +4814,13 @@
         <v>112154</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4835,13 @@
         <v>644590</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H18" s="7">
         <v>543</v>
@@ -4868,13 +4850,13 @@
         <v>588171</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M18" s="7">
         <v>1146</v>
@@ -4883,13 +4865,13 @@
         <v>1232762</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,7 +4927,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4963,7 +4945,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4978,7 +4960,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5008,13 +4990,13 @@
         <v>10546</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H21" s="7">
         <v>43</v>
@@ -5023,13 +5005,13 @@
         <v>44571</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M21" s="7">
         <v>53</v>
@@ -5038,13 +5020,13 @@
         <v>55117</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5041,13 @@
         <v>202072</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>28</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H22" s="7">
         <v>169</v>
@@ -5074,13 +5056,13 @@
         <v>175020</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="M22" s="7">
         <v>355</v>
@@ -5089,13 +5071,13 @@
         <v>377092</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,7 +5151,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5214,13 +5196,13 @@
         <v>14149</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -5229,13 +5211,13 @@
         <v>36752</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -5244,13 +5226,13 @@
         <v>50901</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5247,13 @@
         <v>259832</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H26" s="7">
         <v>233</v>
@@ -5280,13 +5262,13 @@
         <v>241344</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M26" s="7">
         <v>481</v>
@@ -5295,13 +5277,13 @@
         <v>501176</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,7 +5387,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5402,13 @@
         <v>34451</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H29" s="7">
         <v>59</v>
@@ -5435,13 +5417,13 @@
         <v>62829</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M29" s="7">
         <v>91</v>
@@ -5450,13 +5432,13 @@
         <v>97279</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5453,13 @@
         <v>628337</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H30" s="7">
         <v>577</v>
@@ -5486,13 +5468,13 @@
         <v>631024</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M30" s="7">
         <v>1163</v>
@@ -5501,13 +5483,13 @@
         <v>1259362</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>159</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,7 +5545,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5581,7 +5563,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5596,7 +5578,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5611,7 +5593,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5608,13 @@
         <v>23601</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>88</v>
+        <v>309</v>
       </c>
       <c r="H33" s="7">
         <v>65</v>
@@ -5641,13 +5623,13 @@
         <v>69560</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M33" s="7">
         <v>86</v>
@@ -5656,13 +5638,13 @@
         <v>93161</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5659,13 @@
         <v>755497</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>96</v>
+        <v>317</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H34" s="7">
         <v>691</v>
@@ -5692,13 +5674,13 @@
         <v>753018</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M34" s="7">
         <v>1387</v>
@@ -5707,13 +5689,13 @@
         <v>1508515</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5814,13 @@
         <v>142680</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H37" s="7">
         <v>382</v>
@@ -5847,28 +5829,28 @@
         <v>405603</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M37" s="7">
         <v>510</v>
       </c>
       <c r="N37" s="7">
-        <v>548283</v>
+        <v>548284</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>335</v>
+        <v>167</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5865,13 @@
         <v>3284099</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H38" s="7">
         <v>2914</v>
@@ -5898,13 +5880,13 @@
         <v>3149495</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="M38" s="7">
         <v>5995</v>
@@ -5913,13 +5895,13 @@
         <v>6433594</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>344</v>
+        <v>174</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,7 +5943,7 @@
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -5975,7 +5957,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5999,7 +5981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF82B403-2D23-4618-9CDE-CC1B2660601D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2486DCA7-D41C-4585-916B-0A21B09DE5D9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6016,7 +5998,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6144,7 +6126,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6159,7 +6141,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,13 +6156,13 @@
         <v>14496</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>39</v>
@@ -6189,13 +6171,13 @@
         <v>41680</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>52</v>
@@ -6204,13 +6186,13 @@
         <v>56176</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>166</v>
+        <v>350</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,13 +6207,13 @@
         <v>279265</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H6" s="7">
         <v>238</v>
@@ -6240,13 +6222,13 @@
         <v>247023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M6" s="7">
         <v>491</v>
@@ -6255,13 +6237,13 @@
         <v>526288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>364</v>
+        <v>285</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,7 +6317,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6350,7 +6332,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6380,13 +6362,13 @@
         <v>15629</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -6395,13 +6377,13 @@
         <v>50789</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="M9" s="7">
         <v>61</v>
@@ -6410,13 +6392,13 @@
         <v>66418</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,13 +6413,13 @@
         <v>486946</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>438</v>
@@ -6446,13 +6428,13 @@
         <v>472295</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="M10" s="7">
         <v>898</v>
@@ -6461,13 +6443,13 @@
         <v>959241</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,7 +6538,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6571,7 +6553,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,13 +6568,13 @@
         <v>4152</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -6601,13 +6583,13 @@
         <v>26424</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -6616,13 +6598,13 @@
         <v>30576</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,13 +6619,13 @@
         <v>314413</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="H14" s="7">
         <v>306</v>
@@ -6652,13 +6634,13 @@
         <v>309885</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="M14" s="7">
         <v>637</v>
@@ -6667,13 +6649,13 @@
         <v>624298</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,7 +6711,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6747,7 +6729,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6762,7 +6744,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6777,7 +6759,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,13 +6774,13 @@
         <v>10711</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -6807,13 +6789,13 @@
         <v>25836</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -6822,13 +6804,13 @@
         <v>36547</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,13 +6825,13 @@
         <v>359253</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>411</v>
+        <v>228</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="H18" s="7">
         <v>334</v>
@@ -6858,13 +6840,13 @@
         <v>361447</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>413</v>
+        <v>55</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="M18" s="7">
         <v>678</v>
@@ -6873,13 +6855,13 @@
         <v>720700</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>416</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>195</v>
+        <v>401</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,7 +6917,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6953,7 +6935,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6968,7 +6950,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6983,7 +6965,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,13 +6980,13 @@
         <v>11606</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -7013,13 +6995,13 @@
         <v>27885</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>262</v>
+        <v>408</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="M21" s="7">
         <v>40</v>
@@ -7028,13 +7010,13 @@
         <v>39491</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>25</v>
+        <v>410</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,13 +7031,13 @@
         <v>199615</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="H22" s="7">
         <v>195</v>
@@ -7064,13 +7046,13 @@
         <v>190702</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>395</v>
@@ -7079,13 +7061,13 @@
         <v>390317</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>34</v>
+        <v>419</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,7 +7141,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7174,7 +7156,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7204,13 +7186,13 @@
         <v>6687</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>435</v>
+        <v>362</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -7219,13 +7201,13 @@
         <v>34629</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -7234,13 +7216,13 @@
         <v>41316</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,13 +7237,13 @@
         <v>256436</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>368</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="H26" s="7">
         <v>230</v>
@@ -7270,13 +7252,13 @@
         <v>238486</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="M26" s="7">
         <v>482</v>
@@ -7285,13 +7267,13 @@
         <v>494922</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7365,7 +7347,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7410,13 +7392,13 @@
         <v>14681</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>126</v>
+        <v>438</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="H29" s="7">
         <v>52</v>
@@ -7425,13 +7407,13 @@
         <v>58730</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>281</v>
+        <v>441</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="M29" s="7">
         <v>65</v>
@@ -7440,13 +7422,13 @@
         <v>73411</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7461,13 +7443,13 @@
         <v>641877</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>134</v>
+        <v>447</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="H30" s="7">
         <v>594</v>
@@ -7476,13 +7458,13 @@
         <v>632564</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>289</v>
+        <v>450</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="M30" s="7">
         <v>1161</v>
@@ -7491,13 +7473,13 @@
         <v>1274441</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,7 +7535,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7571,7 +7553,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7586,7 +7568,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7601,7 +7583,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7616,13 +7598,13 @@
         <v>32608</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="H33" s="7">
         <v>80</v>
@@ -7631,13 +7613,13 @@
         <v>95223</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>285</v>
+        <v>460</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="M33" s="7">
         <v>113</v>
@@ -7646,13 +7628,13 @@
         <v>127831</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>469</v>
+        <v>411</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7667,13 +7649,13 @@
         <v>745975</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H34" s="7">
         <v>675</v>
@@ -7682,13 +7664,13 @@
         <v>730944</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>294</v>
+        <v>469</v>
       </c>
       <c r="M34" s="7">
         <v>1392</v>
@@ -7697,13 +7679,13 @@
         <v>1476919</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>478</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7822,13 +7804,13 @@
         <v>110570</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="H37" s="7">
         <v>328</v>
@@ -7837,13 +7819,13 @@
         <v>361195</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>483</v>
+        <v>410</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="M37" s="7">
         <v>435</v>
@@ -7852,13 +7834,13 @@
         <v>471765</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>106</v>
+        <v>478</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7873,13 +7855,13 @@
         <v>3283780</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="H38" s="7">
         <v>3010</v>
@@ -7888,13 +7870,13 @@
         <v>3183347</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>492</v>
+        <v>419</v>
       </c>
       <c r="M38" s="7">
         <v>6134</v>
@@ -7903,13 +7885,13 @@
         <v>6467127</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>114</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7965,7 +7947,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -7989,7 +7971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A43A84-CC6F-4BA2-9924-59BDF51643BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C219A47-6076-44CD-BCD3-2BE32321A54A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8006,7 +7988,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8116,7 +8098,7 @@
         <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -8131,7 +8113,7 @@
         <v>135</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -8146,7 +8128,7 @@
         <v>135</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -8170,7 +8152,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8200,7 +8182,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8221,7 +8203,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8251,7 +8233,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,7 +8304,7 @@
         <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -8337,7 +8319,7 @@
         <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -8352,7 +8334,7 @@
         <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -8376,7 +8358,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8391,7 +8373,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8406,7 +8388,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8427,7 +8409,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8442,7 +8424,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8457,7 +8439,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8528,7 +8510,7 @@
         <v>135</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -8543,7 +8525,7 @@
         <v>135</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -8558,7 +8540,7 @@
         <v>135</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -8582,7 +8564,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8612,7 +8594,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8633,7 +8615,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8663,7 +8645,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8719,7 +8701,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8734,7 +8716,7 @@
         <v>135</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -8749,7 +8731,7 @@
         <v>135</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>501</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -8764,7 +8746,7 @@
         <v>135</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -8788,7 +8770,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8818,7 +8800,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8839,7 +8821,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8869,7 +8851,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8925,7 +8907,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8940,7 +8922,7 @@
         <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -8955,7 +8937,7 @@
         <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
@@ -8970,7 +8952,7 @@
         <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -8994,7 +8976,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -9009,7 +8991,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -9024,7 +9006,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9045,7 +9027,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9060,7 +9042,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9075,7 +9057,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9146,7 +9128,7 @@
         <v>135</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>36</v>
@@ -9161,7 +9143,7 @@
         <v>135</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>36</v>
@@ -9176,7 +9158,7 @@
         <v>135</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>36</v>
@@ -9200,7 +9182,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -9215,7 +9197,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -9230,7 +9212,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9251,7 +9233,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9266,7 +9248,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9281,7 +9263,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9352,7 +9334,7 @@
         <v>135</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>395</v>
+        <v>501</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>36</v>
@@ -9367,7 +9349,7 @@
         <v>135</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>36</v>
@@ -9382,7 +9364,7 @@
         <v>135</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>36</v>
@@ -9436,7 +9418,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9487,7 +9469,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9543,7 +9525,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9558,7 +9540,7 @@
         <v>135</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>36</v>
@@ -9573,7 +9555,7 @@
         <v>135</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>36</v>
@@ -9588,7 +9570,7 @@
         <v>135</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>36</v>
@@ -9612,7 +9594,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9627,7 +9609,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9642,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9663,7 +9645,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9678,7 +9660,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9693,7 +9675,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9764,7 +9746,7 @@
         <v>135</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>36</v>
@@ -9779,7 +9761,7 @@
         <v>135</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>36</v>
@@ -9788,13 +9770,13 @@
         <v>8743</v>
       </c>
       <c r="N36" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>135</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>36</v>
@@ -9833,7 +9815,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -9848,7 +9830,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9884,7 +9866,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -9899,7 +9881,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9941,7 +9923,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -9955,7 +9937,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1423-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EC4668A-5BA1-4BA3-A33C-994E5249977A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{392AF7B9-F561-432E-A004-764005B74DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3540B502-CE1A-4B9E-8020-952098A85871}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A4A70B7-6208-4E97-921E-194FCB1C206B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="542">
   <si>
     <t>Población con diagnóstico de depresión o ansiedad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1414 +95,1471 @@
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,28%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
   </si>
   <si>
     <t>95,04%</t>
   </si>
   <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
   </si>
   <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
   </si>
   <si>
     <t>87,32%</t>
   </si>
   <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
   </si>
   <si>
     <t>92,3%</t>
   </si>
   <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>8,5%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
   </si>
   <si>
     <t>91,5%</t>
   </si>
   <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>94,55%</t>
   </si>
   <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
   </si>
   <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>9,52%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>95,81%</t>
   </si>
   <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>88,47%</t>
   </si>
   <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>92,03%</t>
   </si>
   <si>
-    <t>90,48%</t>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
+    <t>3,89%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>11,24%</t>
+    <t>9,26%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>96,74%</t>
   </si>
   <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>96,11%</t>
   </si>
   <si>
     <t>89,81%</t>
   </si>
   <si>
-    <t>88,76%</t>
+    <t>90,74%</t>
   </si>
   <si>
     <t>93,2%</t>
   </si>
   <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>Población con diagnóstico de depresión o ansiedad en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1553,13 +1610,7 @@
     <t>99,31%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
     <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
   </si>
   <si>
     <t>99,48%</t>
@@ -2025,7 +2076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7C1AC7-AB89-4A37-88A9-22DC5B183B7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3457EDAC-C3CF-46D9-91D0-BD10698E79EA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2615,10 +2666,10 @@
         <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -2627,13 +2678,13 @@
         <v>22107</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -2642,13 +2693,13 @@
         <v>25793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2714,13 @@
         <v>315161</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -2678,13 +2729,13 @@
         <v>313305</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>620</v>
@@ -2693,13 +2744,13 @@
         <v>628465</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,7 +2806,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2773,7 +2824,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2788,7 +2839,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2803,7 +2854,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2869,13 @@
         <v>7627</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -2833,13 +2884,13 @@
         <v>16692</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -2848,13 +2899,13 @@
         <v>24319</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2920,13 @@
         <v>351044</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H18" s="7">
         <v>366</v>
@@ -2884,13 +2935,13 @@
         <v>354764</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M18" s="7">
         <v>721</v>
@@ -2899,13 +2950,13 @@
         <v>705808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,7 +3012,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2979,7 +3030,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2994,7 +3045,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3009,7 +3060,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3075,13 @@
         <v>7073</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -3039,13 +3090,13 @@
         <v>21378</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -3054,13 +3105,13 @@
         <v>28452</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3126,13 @@
         <v>196235</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -3090,13 +3141,13 @@
         <v>186290</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>376</v>
@@ -3105,13 +3156,13 @@
         <v>382524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,7 +3218,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3185,7 +3236,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3215,7 +3266,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3281,13 @@
         <v>1908</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -3245,13 +3296,13 @@
         <v>15582</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -3260,13 +3311,13 @@
         <v>17491</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3332,13 @@
         <v>268903</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>255</v>
@@ -3296,13 +3347,13 @@
         <v>262562</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>519</v>
@@ -3311,13 +3362,13 @@
         <v>531464</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,7 +3424,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3391,7 +3442,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3406,7 +3457,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3421,7 +3472,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3487,13 @@
         <v>18294</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -3451,13 +3502,13 @@
         <v>51139</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>71</v>
@@ -3466,13 +3517,13 @@
         <v>69432</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3538,13 @@
         <v>596733</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H30" s="7">
         <v>570</v>
@@ -3502,13 +3553,13 @@
         <v>587080</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M30" s="7">
         <v>1148</v>
@@ -3517,13 +3568,13 @@
         <v>1183814</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,7 +3630,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3597,7 +3648,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3612,7 +3663,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3627,7 +3678,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3693,13 @@
         <v>43459</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H33" s="7">
         <v>52</v>
@@ -3657,13 +3708,13 @@
         <v>57918</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="M33" s="7">
         <v>96</v>
@@ -3672,13 +3723,13 @@
         <v>101376</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3744,13 @@
         <v>700336</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="H34" s="7">
         <v>693</v>
@@ -3708,13 +3759,13 @@
         <v>725593</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M34" s="7">
         <v>1385</v>
@@ -3723,13 +3774,13 @@
         <v>1425930</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,7 +3854,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3818,7 +3869,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3833,7 +3884,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3899,13 @@
         <v>101374</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H37" s="7">
         <v>248</v>
@@ -3863,13 +3914,13 @@
         <v>257122</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M37" s="7">
         <v>352</v>
@@ -3878,13 +3929,13 @@
         <v>358496</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,16 +3947,16 @@
         <v>3110</v>
       </c>
       <c r="D38" s="7">
-        <v>3175170</v>
+        <v>3175169</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H38" s="7">
         <v>3049</v>
@@ -3914,13 +3965,13 @@
         <v>3122076</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="M38" s="7">
         <v>6159</v>
@@ -3929,13 +3980,13 @@
         <v>6297245</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,7 +3998,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -3991,7 +4042,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4015,7 +4066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F298A7A-8304-4091-A79E-697002C88BB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D64FCD-10EE-4AD4-932E-95B0DF78BB4A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4032,7 +4083,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4137,39 +4188,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,39 +4233,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,39 +4278,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,39 +4323,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,7 +4393,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4372,13 +4423,13 @@
         <v>18962</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H9" s="7">
         <v>59</v>
@@ -4387,13 +4438,13 @@
         <v>65013</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
@@ -4402,13 +4453,13 @@
         <v>83975</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4474,13 @@
         <v>486565</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="H10" s="7">
         <v>421</v>
@@ -4438,13 +4489,13 @@
         <v>458752</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>880</v>
@@ -4453,13 +4504,13 @@
         <v>945317</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,7 +4584,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4548,7 +4599,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4578,13 +4629,13 @@
         <v>16841</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -4593,13 +4644,13 @@
         <v>38854</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4608,13 +4659,13 @@
         <v>55695</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4680,13 @@
         <v>307205</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>280</v>
@@ -4644,13 +4695,13 @@
         <v>302166</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>583</v>
@@ -4659,13 +4710,13 @@
         <v>609371</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,7 +4772,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4739,7 +4790,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4754,7 +4805,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4769,7 +4820,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4835,13 @@
         <v>24130</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -4799,13 +4850,13 @@
         <v>88025</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -4814,13 +4865,13 @@
         <v>112154</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4886,13 @@
         <v>644590</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H18" s="7">
         <v>543</v>
@@ -4850,13 +4901,13 @@
         <v>588171</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M18" s="7">
         <v>1146</v>
@@ -4865,13 +4916,13 @@
         <v>1232762</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,7 +4978,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4945,7 +4996,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4960,7 +5011,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4975,7 +5026,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +5041,13 @@
         <v>10546</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="H21" s="7">
         <v>43</v>
@@ -5005,13 +5056,13 @@
         <v>44571</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M21" s="7">
         <v>53</v>
@@ -5020,13 +5071,13 @@
         <v>55117</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5092,13 @@
         <v>202072</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>169</v>
@@ -5056,13 +5107,13 @@
         <v>175020</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>355</v>
@@ -5071,13 +5122,13 @@
         <v>377092</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,7 +5184,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5151,7 +5202,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5181,7 +5232,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5247,13 @@
         <v>14149</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -5211,13 +5262,13 @@
         <v>36752</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -5226,13 +5277,13 @@
         <v>50901</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>278</v>
+        <v>21</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5298,13 @@
         <v>259832</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>233</v>
@@ -5262,13 +5313,13 @@
         <v>241344</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>481</v>
@@ -5277,13 +5328,13 @@
         <v>501176</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>288</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,7 +5390,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5357,7 +5408,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5387,7 +5438,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5453,13 @@
         <v>34451</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="H29" s="7">
         <v>59</v>
@@ -5417,13 +5468,13 @@
         <v>62829</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="M29" s="7">
         <v>91</v>
@@ -5432,13 +5483,13 @@
         <v>97279</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5504,13 @@
         <v>628337</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="H30" s="7">
         <v>577</v>
@@ -5468,13 +5519,13 @@
         <v>631024</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="M30" s="7">
         <v>1163</v>
@@ -5483,13 +5534,13 @@
         <v>1259362</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,7 +5596,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5563,7 +5614,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5578,7 +5629,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5593,7 +5644,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5659,13 @@
         <v>23601</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="H33" s="7">
         <v>65</v>
@@ -5623,13 +5674,13 @@
         <v>69560</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>311</v>
+        <v>173</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M33" s="7">
         <v>86</v>
@@ -5638,13 +5689,13 @@
         <v>93161</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5710,13 @@
         <v>755497</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H34" s="7">
         <v>691</v>
@@ -5674,13 +5725,13 @@
         <v>753018</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>321</v>
+        <v>182</v>
       </c>
       <c r="M34" s="7">
         <v>1387</v>
@@ -5689,13 +5740,13 @@
         <v>1508515</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,7 +5820,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5784,7 +5835,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5799,7 +5850,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5865,13 @@
         <v>142680</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>327</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>382</v>
@@ -5829,28 +5880,28 @@
         <v>405603</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M37" s="7">
         <v>510</v>
       </c>
       <c r="N37" s="7">
-        <v>548284</v>
+        <v>548283</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>167</v>
+        <v>336</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5916,13 @@
         <v>3284099</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>333</v>
+        <v>51</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H38" s="7">
         <v>2914</v>
@@ -5880,13 +5931,13 @@
         <v>3149495</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M38" s="7">
         <v>5995</v>
@@ -5895,13 +5946,13 @@
         <v>6433594</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>174</v>
+        <v>343</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,7 +5994,7 @@
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -5957,7 +6008,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5981,7 +6032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2486DCA7-D41C-4585-916B-0A21B09DE5D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D713169-64FA-4F60-A405-7A8DE60E28BE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5998,7 +6049,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6111,7 +6162,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6126,7 +6177,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6141,7 +6192,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6156,13 +6207,13 @@
         <v>14496</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H5" s="7">
         <v>39</v>
@@ -6171,13 +6222,13 @@
         <v>41680</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M5" s="7">
         <v>52</v>
@@ -6186,13 +6237,13 @@
         <v>56176</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6207,13 +6258,13 @@
         <v>279265</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H6" s="7">
         <v>238</v>
@@ -6222,13 +6273,13 @@
         <v>247023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M6" s="7">
         <v>491</v>
@@ -6237,13 +6288,13 @@
         <v>526288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>285</v>
+        <v>364</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,7 +6368,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6332,7 +6383,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6362,13 +6413,13 @@
         <v>15629</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -6377,13 +6428,13 @@
         <v>50789</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="M9" s="7">
         <v>61</v>
@@ -6392,13 +6443,13 @@
         <v>66418</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6413,13 +6464,13 @@
         <v>486946</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>438</v>
@@ -6428,13 +6479,13 @@
         <v>472295</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="M10" s="7">
         <v>898</v>
@@ -6443,13 +6494,13 @@
         <v>959241</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,7 +6589,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6553,7 +6604,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>375</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,13 +6619,13 @@
         <v>4152</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>387</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>388</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -6583,13 +6634,13 @@
         <v>26424</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -6598,13 +6649,13 @@
         <v>30576</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>113</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,13 +6670,13 @@
         <v>314413</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>306</v>
@@ -6634,13 +6685,13 @@
         <v>309885</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>637</v>
@@ -6649,13 +6700,13 @@
         <v>624298</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>122</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,7 +6762,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6729,7 +6780,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6744,7 +6795,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6759,7 +6810,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,13 +6825,13 @@
         <v>10711</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -6789,13 +6840,13 @@
         <v>25836</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>45</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -6804,13 +6855,13 @@
         <v>36547</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6825,13 +6876,13 @@
         <v>359253</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>228</v>
+        <v>412</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="H18" s="7">
         <v>334</v>
@@ -6840,13 +6891,13 @@
         <v>361447</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>55</v>
+        <v>414</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="M18" s="7">
         <v>678</v>
@@ -6855,13 +6906,13 @@
         <v>720700</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>417</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>230</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6917,7 +6968,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6935,7 +6986,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6950,7 +7001,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6965,7 +7016,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +7031,13 @@
         <v>11606</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -6995,13 +7046,13 @@
         <v>27885</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="M21" s="7">
         <v>40</v>
@@ -7010,13 +7061,13 @@
         <v>39491</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,13 +7082,13 @@
         <v>199615</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>195</v>
@@ -7046,13 +7097,13 @@
         <v>190702</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>395</v>
@@ -7061,13 +7112,13 @@
         <v>390317</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,7 +7174,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7141,7 +7192,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7156,7 +7207,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7186,13 +7237,13 @@
         <v>6687</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>69</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>362</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -7201,13 +7252,13 @@
         <v>34629</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -7216,13 +7267,13 @@
         <v>41316</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,13 +7288,13 @@
         <v>256436</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>230</v>
@@ -7252,13 +7303,13 @@
         <v>238486</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>482</v>
@@ -7267,13 +7318,13 @@
         <v>494922</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7329,7 +7380,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7347,7 +7398,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7377,7 +7428,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7392,13 +7443,13 @@
         <v>14681</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>438</v>
+        <v>244</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>52</v>
@@ -7407,13 +7458,13 @@
         <v>58730</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="M29" s="7">
         <v>65</v>
@@ -7422,13 +7473,13 @@
         <v>73411</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,13 +7494,13 @@
         <v>641877</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>447</v>
+        <v>254</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="H30" s="7">
         <v>594</v>
@@ -7458,13 +7509,13 @@
         <v>632564</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="M30" s="7">
         <v>1161</v>
@@ -7473,13 +7524,13 @@
         <v>1274441</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,7 +7586,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7553,7 +7604,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7568,7 +7619,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7583,7 +7634,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7598,13 +7649,13 @@
         <v>32608</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="H33" s="7">
         <v>80</v>
@@ -7613,13 +7664,13 @@
         <v>95223</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="M33" s="7">
         <v>113</v>
@@ -7628,13 +7679,13 @@
         <v>127831</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7649,13 +7700,13 @@
         <v>745975</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="H34" s="7">
         <v>675</v>
@@ -7664,13 +7715,13 @@
         <v>730944</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="M34" s="7">
         <v>1392</v>
@@ -7679,13 +7730,13 @@
         <v>1476919</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>421</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7759,7 +7810,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7774,7 +7825,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7789,7 +7840,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,13 +7855,13 @@
         <v>110570</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>473</v>
+        <v>17</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="H37" s="7">
         <v>328</v>
@@ -7819,13 +7870,13 @@
         <v>361195</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>410</v>
+        <v>496</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>476</v>
+        <v>333</v>
       </c>
       <c r="M37" s="7">
         <v>435</v>
@@ -7834,13 +7885,13 @@
         <v>471765</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7855,13 +7906,13 @@
         <v>3283780</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
       <c r="H38" s="7">
         <v>3010</v>
@@ -7870,13 +7921,13 @@
         <v>3183347</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>484</v>
+        <v>340</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>419</v>
+        <v>503</v>
       </c>
       <c r="M38" s="7">
         <v>6134</v>
@@ -7885,13 +7936,13 @@
         <v>6467127</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7947,7 +7998,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -7971,7 +8022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C219A47-6076-44CD-BCD3-2BE32321A54A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AC3B72-E355-4B3D-B4AC-6FD47907D014}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7988,7 +8039,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8095,10 +8146,10 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -8110,10 +8161,10 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -8125,10 +8176,10 @@
         <v>531700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -8152,7 +8203,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8167,7 +8218,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8182,7 +8233,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,7 +8254,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8218,7 +8269,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8233,7 +8284,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8301,10 +8352,10 @@
         <v>519297</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -8316,10 +8367,10 @@
         <v>554566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -8331,10 +8382,10 @@
         <v>1073864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -8358,7 +8409,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -8373,7 +8424,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8388,7 +8439,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,7 +8460,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8424,7 +8475,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8439,7 +8490,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8507,10 +8558,10 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -8522,10 +8573,10 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -8537,10 +8588,10 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -8564,7 +8615,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8579,7 +8630,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -8594,7 +8645,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8615,7 +8666,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8630,7 +8681,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8645,7 +8696,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8701,7 +8752,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8713,10 +8764,10 @@
         <v>322240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -8728,10 +8779,10 @@
         <v>428556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -8743,10 +8794,10 @@
         <v>750796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -8770,7 +8821,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8785,7 +8836,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8800,7 +8851,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8821,7 +8872,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8836,7 +8887,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8851,7 +8902,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8907,7 +8958,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8919,10 +8970,10 @@
         <v>196748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -8934,10 +8985,10 @@
         <v>259513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>504</v>
+        <v>396</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
@@ -8949,10 +9000,10 @@
         <v>456260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -8976,7 +9027,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8991,7 +9042,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>506</v>
+        <v>387</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -9006,7 +9057,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9027,7 +9078,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9042,7 +9093,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>506</v>
+        <v>387</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9057,7 +9108,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9113,7 +9164,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9125,10 +9176,10 @@
         <v>277223</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>36</v>
@@ -9140,10 +9191,10 @@
         <v>275622</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>36</v>
@@ -9155,10 +9206,10 @@
         <v>552845</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>36</v>
@@ -9182,7 +9233,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -9197,7 +9248,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -9212,7 +9263,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9233,7 +9284,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9248,7 +9299,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9263,7 +9314,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9319,7 +9370,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9331,10 +9382,10 @@
         <v>627754</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>36</v>
@@ -9346,10 +9397,10 @@
         <v>804203</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>36</v>
@@ -9361,10 +9412,10 @@
         <v>1431957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>36</v>
@@ -9388,7 +9439,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -9418,7 +9469,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9439,7 +9490,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -9469,7 +9520,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9525,7 +9576,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9537,10 +9588,10 @@
         <v>859428</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>36</v>
@@ -9552,10 +9603,10 @@
         <v>868434</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>36</v>
@@ -9567,10 +9618,10 @@
         <v>1727862</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>36</v>
@@ -9594,7 +9645,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9609,7 +9660,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9624,7 +9675,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9645,7 +9696,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -9660,7 +9711,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9675,7 +9726,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9743,10 +9794,10 @@
         <v>3385228</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>36</v>
@@ -9758,10 +9809,10 @@
         <v>3835581</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>36</v>
@@ -9773,10 +9824,10 @@
         <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>36</v>
@@ -9800,7 +9851,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9815,7 +9866,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -9830,7 +9881,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9851,7 +9902,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -9866,7 +9917,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -9881,7 +9932,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9937,7 +9988,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1423-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Provincia-trans_orig.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A2D069F-19EA-47EB-BD02-3C15BC3A0DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{426C5BC5-43F1-489F-9717-3B7C04DAA527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DA8AD66B-4743-4EE6-8CC2-513D0BB6834B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1B3283F2-73B0-4003-8152-08F93ABE743C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
     <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="604">
   <si>
     <t>Población con diagnóstico de depresión o ansiedad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -568,7 +569,58 @@
     <t>Población con diagnóstico de depresión o ansiedad en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -679,58 +731,52 @@
     <t>93,57%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
   <si>
     <t>4,96%</t>
@@ -1249,9 +1295,6 @@
     <t>5,47%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
     <t>94,91%</t>
   </si>
   <si>
@@ -1270,9 +1313,6 @@
     <t>92,3%</t>
   </si>
   <si>
-    <t>89,67%</t>
-  </si>
-  <si>
     <t>94,53%</t>
   </si>
   <si>
@@ -1406,6 +1446,411 @@
   </si>
   <si>
     <t>92,49%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +2262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1378ED39-B7D4-4C60-AA03-939F635F2DA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6E6E41-5675-4B83-93A5-C75CF90D2F4E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3229,7 +3674,7 @@
         <v>3110</v>
       </c>
       <c r="D29" s="7">
-        <v>3175170</v>
+        <v>3175169</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>166</v>
@@ -3244,7 +3689,7 @@
         <v>3049</v>
       </c>
       <c r="I29" s="7">
-        <v>3122076</v>
+        <v>3122075</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>169</v>
@@ -3259,7 +3704,7 @@
         <v>6159</v>
       </c>
       <c r="N29" s="7">
-        <v>6297244</v>
+        <v>6297245</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>172</v>
@@ -3280,7 +3725,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3295,7 +3740,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3310,7 +3755,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3348,7 +3793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75739FA6-8E6B-471E-B430-0E9A79A91CDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C1B561-29F7-4970-B92E-3623C9CC5D84}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3466,43 +3911,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <v>14653</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="I4" s="7">
+        <v>35539</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="N4" s="7">
+        <v>50192</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,43 +3962,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>267</v>
+      </c>
+      <c r="D5" s="7">
+        <v>280085</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>223</v>
+      </c>
+      <c r="I5" s="7">
+        <v>251706</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>490</v>
+      </c>
+      <c r="N5" s="7">
+        <v>531791</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,43 +4013,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +4072,13 @@
         <v>18962</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -3624,13 +4087,13 @@
         <v>65013</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -3639,13 +4102,13 @@
         <v>83975</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +4123,13 @@
         <v>486565</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>421</v>
@@ -3675,13 +4138,13 @@
         <v>458752</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>880</v>
@@ -3690,13 +4153,13 @@
         <v>945317</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +4227,13 @@
         <v>16841</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -3779,13 +4242,13 @@
         <v>38854</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>53</v>
@@ -3794,13 +4257,13 @@
         <v>55695</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +4278,13 @@
         <v>307205</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>280</v>
@@ -3830,13 +4293,13 @@
         <v>302166</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>583</v>
@@ -3845,13 +4308,13 @@
         <v>609371</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,49 +4376,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>24130</v>
+        <v>9477</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I13" s="7">
-        <v>88025</v>
+        <v>52486</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="N13" s="7">
-        <v>112154</v>
+        <v>61963</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,49 +4427,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>603</v>
+        <v>336</v>
       </c>
       <c r="D14" s="7">
-        <v>644590</v>
+        <v>364505</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
-        <v>543</v>
+        <v>320</v>
       </c>
       <c r="I14" s="7">
-        <v>588171</v>
+        <v>336465</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
-        <v>1146</v>
+        <v>656</v>
       </c>
       <c r="N14" s="7">
-        <v>1232762</v>
+        <v>700970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,10 +4478,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4030,10 +4493,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4045,10 +4508,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4074,13 +4537,13 @@
         <v>10546</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -4089,13 +4552,13 @@
         <v>44571</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -4104,13 +4567,13 @@
         <v>55117</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4588,13 @@
         <v>202072</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>169</v>
@@ -4140,13 +4603,13 @@
         <v>175020</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>355</v>
@@ -4155,13 +4618,13 @@
         <v>377092</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4692,13 @@
         <v>14149</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -4244,13 +4707,13 @@
         <v>36752</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>48</v>
@@ -4259,13 +4722,13 @@
         <v>50901</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4743,13 @@
         <v>259832</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>233</v>
@@ -4295,13 +4758,13 @@
         <v>241344</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="M20" s="7">
         <v>481</v>
@@ -4310,13 +4773,13 @@
         <v>501176</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4847,13 @@
         <v>34451</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -4399,13 +4862,13 @@
         <v>62829</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="M22" s="7">
         <v>91</v>
@@ -4414,13 +4877,13 @@
         <v>97279</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4898,13 @@
         <v>628337</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H23" s="7">
         <v>577</v>
@@ -4450,13 +4913,13 @@
         <v>631024</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="M23" s="7">
         <v>1163</v>
@@ -4465,10 +4928,10 @@
         <v>1259362</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>138</v>
@@ -4539,10 +5002,10 @@
         <v>23601</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>73</v>
@@ -4554,13 +5017,13 @@
         <v>69560</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -4569,13 +5032,13 @@
         <v>93161</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +5053,13 @@
         <v>755497</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>81</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="H26" s="7">
         <v>691</v>
@@ -4605,13 +5068,13 @@
         <v>753018</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="M26" s="7">
         <v>1387</v>
@@ -4620,13 +5083,13 @@
         <v>1508515</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +5157,13 @@
         <v>142680</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="H28" s="7">
         <v>382</v>
@@ -4709,13 +5172,13 @@
         <v>405603</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="M28" s="7">
         <v>510</v>
@@ -4724,13 +5187,13 @@
         <v>548283</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,13 +5208,13 @@
         <v>3284099</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="H29" s="7">
         <v>2914</v>
@@ -4760,13 +5223,13 @@
         <v>3149495</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>5995</v>
@@ -4775,13 +5238,13 @@
         <v>6433594</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,7 +5324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CC9C87-C245-4EE5-B1A9-C8855D3DBD8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5300EB-15BA-49DD-B55B-CF7B58748A65}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4878,7 +5341,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4985,13 +5448,13 @@
         <v>14496</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -5000,13 +5463,13 @@
         <v>41680</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -5015,13 +5478,13 @@
         <v>56176</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>144</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5499,13 @@
         <v>279265</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
         <v>238</v>
@@ -5051,13 +5514,13 @@
         <v>247023</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
         <v>491</v>
@@ -5066,10 +5529,10 @@
         <v>526288</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>152</v>
@@ -5140,13 +5603,13 @@
         <v>15629</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>46</v>
@@ -5155,13 +5618,13 @@
         <v>50789</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -5170,13 +5633,13 @@
         <v>66418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5654,13 @@
         <v>486946</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>438</v>
@@ -5206,13 +5669,13 @@
         <v>472295</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>898</v>
@@ -5221,13 +5684,13 @@
         <v>959241</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5758,13 @@
         <v>4152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -5310,13 +5773,13 @@
         <v>26424</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -5325,13 +5788,13 @@
         <v>30576</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5809,13 @@
         <v>314413</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>306</v>
@@ -5361,13 +5824,13 @@
         <v>309885</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>637</v>
@@ -5376,13 +5839,13 @@
         <v>624298</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,13 +5913,13 @@
         <v>10711</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5465,13 +5928,13 @@
         <v>25836</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -5480,7 +5943,7 @@
         <v>36547</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>87</v>
@@ -5501,13 +5964,13 @@
         <v>359253</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -5516,13 +5979,13 @@
         <v>361447</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>678</v>
@@ -5531,7 +5994,7 @@
         <v>720700</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>171</v>
@@ -5605,13 +6068,13 @@
         <v>11606</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -5620,13 +6083,13 @@
         <v>27885</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -5638,10 +6101,10 @@
         <v>19</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +6119,13 @@
         <v>199615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>195</v>
@@ -5671,13 +6134,13 @@
         <v>190702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>395</v>
@@ -5689,10 +6152,10 @@
         <v>28</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,10 +6226,10 @@
         <v>159</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -5775,13 +6238,13 @@
         <v>34629</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -5790,13 +6253,13 @@
         <v>41316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,10 +6277,10 @@
         <v>168</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>230</v>
@@ -5826,13 +6289,13 @@
         <v>238486</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>482</v>
@@ -5841,13 +6304,13 @@
         <v>494922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,10 +6381,10 @@
         <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -5930,13 +6393,13 @@
         <v>58730</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -5945,13 +6408,13 @@
         <v>73411</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,10 +6432,10 @@
         <v>116</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="H23" s="7">
         <v>594</v>
@@ -5981,13 +6444,13 @@
         <v>632564</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -5996,13 +6459,13 @@
         <v>1274441</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,13 +6533,13 @@
         <v>32608</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="H25" s="7">
         <v>80</v>
@@ -6085,13 +6548,13 @@
         <v>95223</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -6100,13 +6563,13 @@
         <v>127831</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6584,13 @@
         <v>745975</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>675</v>
@@ -6136,13 +6599,13 @@
         <v>730944</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="M26" s="7">
         <v>1392</v>
@@ -6151,13 +6614,13 @@
         <v>1476919</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,13 +6688,13 @@
         <v>110570</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="H28" s="7">
         <v>328</v>
@@ -6240,13 +6703,13 @@
         <v>361195</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="M28" s="7">
         <v>435</v>
@@ -6255,13 +6718,13 @@
         <v>471765</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>89</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,13 +6739,13 @@
         <v>3283780</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>3010</v>
@@ -6291,13 +6754,13 @@
         <v>3183347</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>6134</v>
@@ -6306,10 +6769,10 @@
         <v>6467127</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>97</v>
@@ -6355,6 +6818,1537 @@
       </c>
       <c r="N30" s="7">
         <v>6938892</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E26343-7296-4BD0-B15C-67C73FC75C86}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5477</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H4" s="7">
+        <v>32</v>
+      </c>
+      <c r="I4" s="7">
+        <v>14657</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="M4" s="7">
+        <v>38</v>
+      </c>
+      <c r="N4" s="7">
+        <v>20134</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>325</v>
+      </c>
+      <c r="D5" s="7">
+        <v>305966</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H5" s="7">
+        <v>506</v>
+      </c>
+      <c r="I5" s="7">
+        <v>274978</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="M5" s="7">
+        <v>831</v>
+      </c>
+      <c r="N5" s="7">
+        <v>580943</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>331</v>
+      </c>
+      <c r="D6" s="7">
+        <v>311443</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>538</v>
+      </c>
+      <c r="I6" s="7">
+        <v>289635</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>869</v>
+      </c>
+      <c r="N6" s="7">
+        <v>601077</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7">
+        <v>28758</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="H7" s="7">
+        <v>106</v>
+      </c>
+      <c r="I7" s="7">
+        <v>69824</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="M7" s="7">
+        <v>131</v>
+      </c>
+      <c r="N7" s="7">
+        <v>98582</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>357</v>
+      </c>
+      <c r="D8" s="7">
+        <v>489632</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H8" s="7">
+        <v>611</v>
+      </c>
+      <c r="I8" s="7">
+        <v>445145</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="M8" s="7">
+        <v>968</v>
+      </c>
+      <c r="N8" s="7">
+        <v>934777</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>382</v>
+      </c>
+      <c r="D9" s="7">
+        <v>518390</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>717</v>
+      </c>
+      <c r="I9" s="7">
+        <v>514969</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1099</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1033359</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7">
+        <v>27403</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H10" s="7">
+        <v>91</v>
+      </c>
+      <c r="I10" s="7">
+        <v>52976</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="M10" s="7">
+        <v>126</v>
+      </c>
+      <c r="N10" s="7">
+        <v>80378</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>325</v>
+      </c>
+      <c r="D11" s="7">
+        <v>288647</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="H11" s="7">
+        <v>445</v>
+      </c>
+      <c r="I11" s="7">
+        <v>296152</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="M11" s="7">
+        <v>770</v>
+      </c>
+      <c r="N11" s="7">
+        <v>584800</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>360</v>
+      </c>
+      <c r="D12" s="7">
+        <v>316050</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>536</v>
+      </c>
+      <c r="I12" s="7">
+        <v>349128</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>896</v>
+      </c>
+      <c r="N12" s="7">
+        <v>665178</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7">
+        <v>24838</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="H13" s="7">
+        <v>68</v>
+      </c>
+      <c r="I13" s="7">
+        <v>38582</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="M13" s="7">
+        <v>93</v>
+      </c>
+      <c r="N13" s="7">
+        <v>63420</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>267</v>
+      </c>
+      <c r="D14" s="7">
+        <v>287719</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H14" s="7">
+        <v>531</v>
+      </c>
+      <c r="I14" s="7">
+        <v>437136</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="M14" s="7">
+        <v>798</v>
+      </c>
+      <c r="N14" s="7">
+        <v>724854</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>292</v>
+      </c>
+      <c r="D15" s="7">
+        <v>312557</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>599</v>
+      </c>
+      <c r="I15" s="7">
+        <v>475718</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>891</v>
+      </c>
+      <c r="N15" s="7">
+        <v>788274</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2986</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="H16" s="7">
+        <v>37</v>
+      </c>
+      <c r="I16" s="7">
+        <v>16101</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M16" s="7">
+        <v>42</v>
+      </c>
+      <c r="N16" s="7">
+        <v>19087</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>274</v>
+      </c>
+      <c r="D17" s="7">
+        <v>175756</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="H17" s="7">
+        <v>458</v>
+      </c>
+      <c r="I17" s="7">
+        <v>242678</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="M17" s="7">
+        <v>732</v>
+      </c>
+      <c r="N17" s="7">
+        <v>418434</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>279</v>
+      </c>
+      <c r="D18" s="7">
+        <v>178742</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>495</v>
+      </c>
+      <c r="I18" s="7">
+        <v>258779</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>774</v>
+      </c>
+      <c r="N18" s="7">
+        <v>437521</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>41</v>
+      </c>
+      <c r="D19" s="7">
+        <v>27441</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H19" s="7">
+        <v>76</v>
+      </c>
+      <c r="I19" s="7">
+        <v>38794</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="M19" s="7">
+        <v>117</v>
+      </c>
+      <c r="N19" s="7">
+        <v>66235</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>330</v>
+      </c>
+      <c r="D20" s="7">
+        <v>242195</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="H20" s="7">
+        <v>384</v>
+      </c>
+      <c r="I20" s="7">
+        <v>218262</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="M20" s="7">
+        <v>714</v>
+      </c>
+      <c r="N20" s="7">
+        <v>460457</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>371</v>
+      </c>
+      <c r="D21" s="7">
+        <v>269636</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>460</v>
+      </c>
+      <c r="I21" s="7">
+        <v>257056</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>831</v>
+      </c>
+      <c r="N21" s="7">
+        <v>526692</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>46</v>
+      </c>
+      <c r="D22" s="7">
+        <v>45270</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="H22" s="7">
+        <v>147</v>
+      </c>
+      <c r="I22" s="7">
+        <v>98369</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="M22" s="7">
+        <v>193</v>
+      </c>
+      <c r="N22" s="7">
+        <v>143639</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>553</v>
+      </c>
+      <c r="D23" s="7">
+        <v>579009</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="H23" s="7">
+        <v>813</v>
+      </c>
+      <c r="I23" s="7">
+        <v>750896</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1366</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1329905</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>599</v>
+      </c>
+      <c r="D24" s="7">
+        <v>624279</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>960</v>
+      </c>
+      <c r="I24" s="7">
+        <v>849265</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1559</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1473544</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7">
+        <v>35195</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="H25" s="7">
+        <v>135</v>
+      </c>
+      <c r="I25" s="7">
+        <v>83824</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="M25" s="7">
+        <v>175</v>
+      </c>
+      <c r="N25" s="7">
+        <v>119019</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>722</v>
+      </c>
+      <c r="D26" s="7">
+        <v>893525</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="H26" s="7">
+        <v>927</v>
+      </c>
+      <c r="I26" s="7">
+        <v>633907</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1649</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1527433</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>762</v>
+      </c>
+      <c r="D27" s="7">
+        <v>928720</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1062</v>
+      </c>
+      <c r="I27" s="7">
+        <v>717731</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1824</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1646452</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>223</v>
+      </c>
+      <c r="D28" s="7">
+        <v>197367</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H28" s="7">
+        <v>692</v>
+      </c>
+      <c r="I28" s="7">
+        <v>413127</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="M28" s="7">
+        <v>915</v>
+      </c>
+      <c r="N28" s="7">
+        <v>610494</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>3153</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3262450</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H29" s="7">
+        <v>4675</v>
+      </c>
+      <c r="I29" s="7">
+        <v>3299153</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="M29" s="7">
+        <v>7828</v>
+      </c>
+      <c r="N29" s="7">
+        <v>6561603</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>3376</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="7">
+        <v>5367</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="7">
+        <v>8743</v>
+      </c>
+      <c r="N30" s="7">
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
